--- a/biology/Botanique/Firmiana_simplex/Firmiana_simplex.xlsx
+++ b/biology/Botanique/Firmiana_simplex/Firmiana_simplex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Parasol chinois ou Sterculier à feuilles de platane (Firmiana simplex (L.) W. Wight, 1909), 梧桐 wútóng en mandarin, est un arbre à feuilles caduques de la famille des Sterculiacées, originaire d'Asie du Sud-Est (Chine, Taïwan, Îles Ryūkyū).
 Il est également connu sous les noms scientifiques suivants : Hibiscus collinus Roxb., Hibiscus simplex L., Firmiana platanifolia, Sterculia platanifolia L.f.).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre peut atteindre 12 mètres de hauteur. Il a un tronc gris et lisse.
 Ses feuilles palmées sont alternes, caduques et atteignent 30 cm de largeur.
@@ -553,7 +567,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rustique jusqu'à -10 °C, il préfère les expositions chaudes à l'abri du vent et un sol riche et humide. Les jeunes plants sont plus sensibles au froid.
 Multiplication par semis de graines fraîches.
@@ -586,7 +602,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On le cultive pour l'ornement dans les régions tempérées d'Amérique du Nord, et en Espagne (Barcelone).
 Les qualités acoustiques exceptionnelles de son bois dur mais léger le font utiliser dans la caisse de résonance de plusieurs instruments de musique chinois, comme le guqin et le guzheng.
@@ -619,9 +637,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (30 août 2014)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (30 août 2014) :
 variété Firmiana simplex var. glabra Hatus.
 </t>
         </is>
